--- a/Pythogoras Analysis.xlsx
+++ b/Pythogoras Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blued\Desktop\Self Learn\Logic Guided Machine Learning\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186FF100-8D1E-4898-B451-9FFCCE18BF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7737B953-A4F1-4DFE-A609-5C47583B8D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Triangle Rule" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="212">
   <si>
     <t>Weight</t>
   </si>
@@ -546,111 +546,9 @@
     <t>add(ARG1, div(add(ARG1, ARG0), sqrt(add(div(ARG1, ARG1), sqrt(ARG1)))))</t>
   </si>
   <si>
-    <t>add(sqrt(add(ARG0, div(exp(sqrt(ARG0)), sub(ARG1, ARG0)))), ARG1)</t>
-  </si>
-  <si>
-    <t>add(ARG0, sqrt(mul(ARG1, sqrt(mul(add(ARG1, sqrt(sub(ARG1, ARG0))), sqrt(sub(ARG1, exp(ARG1))))))))</t>
-  </si>
-  <si>
-    <t>add(div(ARG0, div(add(ARG1, ARG1), ARG1)), ARG1)</t>
-  </si>
-  <si>
-    <t>add(ARG0, add(sqrt(ARG1), sqrt(mul(ARG1, sqrt(mul(ARG1, sqrt(ARG0)))))))</t>
-  </si>
-  <si>
-    <t>add(sub(ARG1, sqrt(ARG0)), ARG0)</t>
-  </si>
-  <si>
-    <t>add(ARG0, sub(ARG1, pow(add(ARG1, ARG0), sub(ARG0, ARG0))))</t>
-  </si>
-  <si>
-    <t>add(div(add(ARG0, ARG0), sqrt(ARG1)), ARG1)</t>
-  </si>
-  <si>
-    <t>sqrt(mul(add(ARG0, ARG1), add(sqrt(ARG0), ARG1)))</t>
-  </si>
-  <si>
-    <t>add(ARG1, sqrt(sqrt(mul(ARG1, ARG0))))</t>
-  </si>
-  <si>
-    <t>add(div(ARG1, sqrt(sqrt(ARG0))), ARG0)</t>
-  </si>
-  <si>
-    <t>add(ARG0, sub(ARG1, mul(sqrt(ARG1), sqrt(ARG0))))</t>
-  </si>
-  <si>
-    <t>add(sqrt(ARG0), sqrt(mul(add(ARG1, ARG0), sqrt(mul(ARG1, ARG0)))))</t>
-  </si>
-  <si>
-    <t>add(sub(ARG0, sqrt(add(ARG0, mul(sqrt(ARG1), add(ARG0, ARG0))))), ARG1)</t>
-  </si>
-  <si>
-    <t>sub(add(ARG1, ARG0), sqrt(add(ARG1, add(ARG1, ARG0))))</t>
-  </si>
-  <si>
-    <t>sub(ARG1, sub(pow(pow(pow(ARG0, ARG1), pow(ARG1, ARG1)), sqrt(ARG0)), sqrt(sub(sqrt(mul(div(ARG0, ARG1), add(ARG0, ARG1))), sub(ARG0, ARG1)))))</t>
-  </si>
-  <si>
-    <t>add(sqrt(pow(div(ARG1, ARG0), sqrt(ARG0))), ARG0)</t>
-  </si>
-  <si>
-    <t>sub(add(ARG1, ARG0), sqrt(add(sub(mul(ARG0, ARG1), sub(mul(ARG0, ARG0), div(ARG0, ARG1))), ARG0)))</t>
-  </si>
-  <si>
-    <t>add(ARG0, div(add(ARG1, ARG0), sqrt(ARG0)))</t>
-  </si>
-  <si>
-    <t>add(div(ARG0, pow(ARG1, exp(div(ARG0, pow(sub(ARG1, ARG0), pow(ARG1, exp(ARG0))))))), ARG1)</t>
-  </si>
-  <si>
-    <t>sqrt(mul(add(add(ARG1, ARG1), mul(sqrt(ARG1), div(ARG0, ARG1))), ARG0))</t>
-  </si>
-  <si>
-    <t>add(add(exp(ARG1), sqrt(sub(add(ARG0, ARG0), exp(ARG1)))), ARG1)</t>
-  </si>
-  <si>
-    <t>add(ARG0, sub(div(ARG1, exp(div(ARG0, ARG1))), sub(div(ARG0, exp(ARG0)), sub(ARG1, ARG1))))</t>
-  </si>
-  <si>
-    <t>sub(add(ARG0, ARG1), sqrt(div(mul(mul(ARG1, add(ARG0, ARG1)), sqrt(ARG0)), ARG0)))</t>
-  </si>
-  <si>
-    <t>add(ARG0, sub(ARG1, sqrt(ARG0)))</t>
-  </si>
-  <si>
-    <t>add(sub(ARG0, sqrt(ARG1)), ARG1)</t>
-  </si>
-  <si>
-    <t>sqrt(mul(ARG0, add(ARG0, div(sub(mul(ARG1, ARG1), sqrt(div(pow(ARG1, ARG1), sub(ARG1, ARG1)))), ARG0))))</t>
-  </si>
-  <si>
-    <t>add(sub(ARG1, sqrt(add(ARG0, add(add(sub(ARG1, sqrt(sqrt(add(mul(ARG1, ARG1), sqrt(ARG0))))), ARG0), ARG1)))), ARG0)</t>
-  </si>
-  <si>
     <t>sqrt(mul(ARG1, add(ARG0, ARG1)))</t>
   </si>
   <si>
-    <t>add(add(sub(sqrt(sub(ARG0, div(ARG0, exp(add(ARG1, ARG1))))), div(ARG0, ARG1)), ARG1), div(ARG1, ARG0))</t>
-  </si>
-  <si>
-    <t>add(sqrt(div(mul(mul(div(mul(mul(ARG0, ARG1), sqrt(sqrt(ARG0))), ARG0), ARG1), sqrt(ARG0)), ARG0)), ARG0)</t>
-  </si>
-  <si>
-    <t>add(ARG0, div(ARG1, exp(div(ARG0, ARG0))))</t>
-  </si>
-  <si>
-    <t>add(mul(div(ARG1, add(add(ARG1, mul(div(ARG1, add(ARG1, ARG0)), ARG0)), ARG0)), ARG1), ARG0)</t>
-  </si>
-  <si>
-    <t>sub(add(ARG0, ARG1), sqrt(add(ARG1, add(add(ARG1, add(ARG0, ARG1)), ARG1))))</t>
-  </si>
-  <si>
-    <t>add(ARG1, sub(sub(ARG0, sqrt(ARG1)), sqrt(add(ARG0, ARG1))))</t>
-  </si>
-  <si>
-    <t>sub(add(ARG1, ARG0), div(ARG1, add(sqrt(div(sqrt(ARG1), ARG0)), div(ARG1, ARG1))))</t>
-  </si>
-  <si>
     <t>add(div(add(mul(sqrt(add(ARG1, ARG0)), add(ARG0, ARG0)), ARG1), ARG1), ARG1)</t>
   </si>
   <si>
@@ -688,6 +586,87 @@
   </si>
   <si>
     <t>sqrt(mul(sub(add(ARG1, ARG0), exp(div(sub(ARG1, ARG0), ARG1))), ARG1))</t>
+  </si>
+  <si>
+    <t>sub(ARG0, div(add(ARG1, ARG1), pow(ARG1, ARG0)))</t>
+  </si>
+  <si>
+    <t>sub(add(ARG1, ARG0), div(ARG0, div(ARG0, div(ARG0, mul(pow(exp(ARG1), exp(ARG1)), sqrt(sqrt(ARG1)))))))</t>
+  </si>
+  <si>
+    <t>add(ARG0, sqrt(mul(add(ARG0, ARG1), sqrt(ARG1))))</t>
+  </si>
+  <si>
+    <t>add(sub(ARG0, sqrt(mul(sqrt(ARG1), sub(ARG0, div(ARG0, ARG0))))), ARG1)</t>
+  </si>
+  <si>
+    <t>add(sub(sub(ARG1, sqrt(add(ARG0, ARG0))), sqrt(ARG1)), ARG0)</t>
+  </si>
+  <si>
+    <t>ARG0</t>
+  </si>
+  <si>
+    <t>add(sqrt(mul(ARG0, ARG1)), div(div(mul(ARG1, ARG0), div(ARG0, ARG0)), add(ARG1, ARG1)))</t>
+  </si>
+  <si>
+    <t>sub(add(ARG1, ARG0), sqrt(sub(mul(ARG1, ARG0), pow(ARG0, ARG1))))</t>
+  </si>
+  <si>
+    <t>add(sqrt(div(ARG0, div(sqrt(ARG0), add(ARG1, ARG1)))), ARG0)</t>
+  </si>
+  <si>
+    <t>add(ARG1, sub(ARG0, sqrt(ARG1)))</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>sub(add(ARG0, ARG1), sqrt(mul(div(ARG0, sqrt(ARG0)), add(ARG1, ARG0))))</t>
+  </si>
+  <si>
+    <t>add(sub(ARG1, sqrt(div(add(ARG0, sqrt(sqrt(ARG1))), div(sqrt(sqrt(ARG1)), ARG1)))), ARG0)</t>
+  </si>
+  <si>
+    <t>sub(add(div(mul(ARG1, ARG1), add(ARG0, ARG1)), ARG0), sqrt(ARG0))</t>
+  </si>
+  <si>
+    <t>sub(add(ARG1, ARG0), sqrt(ARG0))</t>
+  </si>
+  <si>
+    <t>add(div(mul(ARG1, ARG1), add(ARG1, ARG0)), ARG0)</t>
+  </si>
+  <si>
+    <t>sqrt(mul(pow(add(ARG1, ARG1), div(ARG1, ARG1)), ARG0))</t>
+  </si>
+  <si>
+    <t>add(sqrt(mul(sqrt(ARG0), ARG0)), ARG1)</t>
+  </si>
+  <si>
+    <t>add(ARG1, div(add(ARG0, ARG0), sqrt(sqrt(ARG1))))</t>
+  </si>
+  <si>
+    <t>add(ARG1, sub(ARG0, sub(ARG1, ARG1)))</t>
+  </si>
+  <si>
+    <t>sqrt(add(mul(add(ARG1, ARG0), ARG1), ARG1))</t>
+  </si>
+  <si>
+    <t>add(sub(ARG1, div(ARG1, sqrt(ARG1))), ARG0)</t>
+  </si>
+  <si>
+    <t>add(add(ARG0, ARG0), sub(ARG1, ARG0))</t>
+  </si>
+  <si>
+    <t>sub(add(ARG1, ARG0), sqrt(add(add(ARG1, ARG0), add(ARG1, ARG1))))</t>
+  </si>
+  <si>
+    <t>add(div(mul(ARG1, ARG1), add(ARG1, ARG1)), ARG0)</t>
+  </si>
+  <si>
+    <t>add(div(ARG0, exp(exp(pow(ARG0, ARG1)))), ARG1)</t>
+  </si>
+  <si>
+    <t>add(div(ARG1, sqrt(sqrt(sqrt(ARG0)))), ARG0)</t>
   </si>
 </sst>
 </file>
@@ -837,7 +816,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1026,12 +1005,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,7 +1579,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1633,7 +1606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1674,10 +1646,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3970,32 +3938,41 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Triangle Rule Data Size'!$A$3:$A$10</c:f>
+              <c:f>'Triangle Rule Data Size'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4003,33 +3980,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Triangle Rule Data Size'!$V$3:$V$10</c:f>
+              <c:f>'Triangle Rule Data Size'!$V$3:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.53520688483348811</c:v>
+                  <c:v>31155.403992332798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2788.624143321159</c:v>
+                  <c:v>16179.493510688761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7417.4167956426299</c:v>
+                  <c:v>15410.340539042652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8953.3055277926305</c:v>
+                  <c:v>15465.970318733922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17440.8054404342</c:v>
+                  <c:v>9171.3702757443534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9833.1578126069489</c:v>
+                  <c:v>13787.816693436645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13582.368941860283</c:v>
+                  <c:v>10662.359867095196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11846.149086462539</c:v>
+                  <c:v>10807.912617714808</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12395.14990757329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11618.449254805219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10109.141566745766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,32 +4476,41 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Triangle Rule Data Size'!$A$3:$A$10</c:f>
+              <c:f>'Triangle Rule Data Size'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4523,33 +4518,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Triangle Rule Data Size'!$W$3:$W$10</c:f>
+              <c:f>'Triangle Rule Data Size'!$W$3:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.786733961105298</c:v>
+                  <c:v>16.146251344680756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.22445225715622</c:v>
+                  <c:v>165.40505833625772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.797654676437318</c:v>
+                  <c:v>347.0529588699336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.92278518676721</c:v>
+                  <c:v>558.3511738777155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>217.80911841392481</c:v>
+                  <c:v>848.38961639404147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>745.11521029472158</c:v>
+                  <c:v>847.86184864043867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1427.7349546909309</c:v>
+                  <c:v>866.43666477203078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1778.7650925159421</c:v>
+                  <c:v>642.70110249519303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1224.8458469867669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1162.5605058670014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2042.236967039104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10501,15 +10505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>56697</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19276</xdr:rowOff>
+      <xdr:colOff>310697</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>193222</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99106</xdr:rowOff>
+      <xdr:colOff>447222</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10538,16 +10542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>346981</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>483506</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>87766</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142194</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10620,15 +10624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>346981</xdr:colOff>
+      <xdr:colOff>383267</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:rowOff>97517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>483506</xdr:colOff>
+      <xdr:colOff>519792</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>87766</xdr:rowOff>
+      <xdr:rowOff>178480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10974,37 +10978,37 @@
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="31" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -11796,11 +11800,11 @@
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q16" s="5" t="s">
@@ -11967,43 +11971,43 @@
       <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="28" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="28" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="28" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="38" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="40"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -13642,10 +13646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8A28B8-10CF-418A-9095-47305C363654}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13658,43 +13662,43 @@
       <c r="A1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="28" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="29"/>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="28" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="38" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="40"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -13733,7 +13737,7 @@
       <c r="L2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="19" t="s">
@@ -13777,419 +13781,419 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1">
-        <v>0.68703083437224799</v>
+        <v>31786.4032915932</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>10.866931438446001</v>
+        <v>9.27026271820068</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G3" s="1">
-        <v>6.1211700711673103E-2</v>
+        <v>31629.707485540701</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>10.594362258911101</v>
+        <v>12.306051492690999</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K3" s="1">
-        <v>1.1824851719513201</v>
+        <v>29101.494213448699</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
-        <v>24.659100294113099</v>
+      <c r="M3" s="6">
+        <v>22.470460891723601</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O3" s="1">
-        <v>0.71980955907168398</v>
+        <v>31629.707485540701</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <v>12.1624858379364</v>
+        <v>12.1604926586151</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="S3" s="1">
-        <v>2.54971580605159E-2</v>
+        <v>31629.707485540701</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <v>20.650789976119899</v>
+        <v>24.523988962173402</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" ref="V3:V9" si="0">SUM(C3, G3,K3,O3,S3)/5</f>
-        <v>0.53520688483348811</v>
+        <v>31155.403992332798</v>
       </c>
       <c r="W3" s="1">
         <f>SUM(E3, I3,M3,Q3,U3)/5</f>
-        <v>15.786733961105298</v>
+        <v>16.146251344680756</v>
       </c>
       <c r="X3" s="1">
         <f t="shared" ref="X3:X9" si="1">STDEV(C3, G3,K3,O3,S3)</f>
-        <v>0.49004420211377042</v>
+        <v>1150.1735636927265</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>148</v>
       </c>
       <c r="Z3" s="6">
         <f>STDEV(E3, I3,M3,Q3,U3)</f>
-        <v>6.4551971402563568</v>
+        <v>6.8573818032233032</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="C4" s="1">
-        <v>1179.21157001706</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>27.5114424228668</v>
+        <v>80.108857631683307</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>3709.86391785246</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>25.172137975692699</v>
+        <v>95.536459445953298</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="K4" s="1">
-        <v>8134.4851847305699</v>
+        <v>10319.7957277487</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>429.05570054054198</v>
+      <c r="M4" s="6">
+        <v>256.01288557052601</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="O4" s="1">
-        <v>139.22227786594399</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <v>37.676302909851003</v>
+        <v>193.905573368072</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S4" s="1">
-        <v>780.33776613976295</v>
+        <v>12580.2831304429</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U4" s="6">
-        <v>31.706677436828599</v>
+        <v>201.46151566505401</v>
       </c>
       <c r="V4" s="5">
         <f t="shared" si="0"/>
-        <v>2788.624143321159</v>
+        <v>16179.493510688761</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" ref="W4:W9" si="2">SUM(E4, I4,M4,Q4,U4)/5</f>
-        <v>110.22445225715622</v>
+        <v>165.40505833625772</v>
       </c>
       <c r="X4" s="1">
         <f t="shared" si="1"/>
-        <v>3281.3741879278518</v>
+        <v>4390.729476650893</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" ref="Y4:Y9" si="3">AVERAGE(D4/A4, H4/A4, L4/A4, P4/A4, T4/A4)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z4" s="6">
         <f t="shared" ref="Z4:Z9" si="4">STDEV(E4, I4,M4,Q4,U4)</f>
-        <v>178.29538551156944</v>
+        <v>74.965306632178596</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3574.0380444707698</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>58.644161939620901</v>
+        <v>170.43156743049599</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
-        <v>13151.139109587801</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>62.668393135070801</v>
+        <v>177.8366522789</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1">
-        <v>9714.3622287421604</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
-        <v>107.30750155448899</v>
+      <c r="M5" s="6">
+        <v>632.64664101600601</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="O5" s="1">
-        <v>4707.0314124556098</v>
+        <v>9522.2892792724506</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="6">
-        <v>68.256511688232393</v>
+        <v>429.08565163612298</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="S5" s="1">
-        <v>5940.5131829568099</v>
+        <v>9532.0247206886106</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
       </c>
       <c r="U5" s="6">
-        <v>97.111705064773503</v>
+        <v>325.26428198814301</v>
       </c>
       <c r="V5" s="5">
         <f t="shared" si="0"/>
-        <v>7417.4167956426299</v>
+        <v>15410.340539042652</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="2"/>
-        <v>78.797654676437318</v>
+        <v>347.0529588699336</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" si="1"/>
-        <v>3951.2821756863659</v>
+        <v>5370.5883267970539</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z5" s="6">
         <f t="shared" si="4"/>
-        <v>21.941102145841331</v>
+        <v>192.74149445228218</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>6215.75026923513</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="D6" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>115.299577951431</v>
+        <v>257.460664749145</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>4745.6822175945499</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>151.075342655181</v>
+        <v>248.04511117935101</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1">
-        <v>17509.602234435599</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="L6" s="1">
-        <v>400</v>
-      </c>
-      <c r="M6" s="1">
-        <v>121.43128085136399</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>951.22479224204994</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="O6" s="1">
-        <v>16074.716790697001</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="6">
-        <v>113.74689555168101</v>
+        <v>615.23041772842396</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="S6" s="1">
-        <v>220.77612700087499</v>
+        <v>147</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1.69776612953257E-15</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
       <c r="U6" s="6">
-        <v>203.06082892417899</v>
+        <v>719.79488348960797</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" si="0"/>
-        <v>8953.3055277926305</v>
+        <v>15465.970318733922</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="2"/>
-        <v>140.92278518676721</v>
+        <v>558.3511738777155</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="1"/>
-        <v>7506.3320629552654</v>
+        <v>8645.7402426707831</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="3"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="4"/>
-        <v>37.87877826172047</v>
+        <v>304.33285675062024</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1">
-        <v>15906.829171685</v>
+        <v>7433.5746415188296</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>179.50868391990599</v>
+        <v>723.77695441245999</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="G7" s="1">
-        <v>15900.6530221744</v>
+        <v>9151.5203486570808</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>323.964366197586</v>
+        <v>353.52122473716702</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="K7" s="1">
-        <v>19747.945993068599</v>
+        <v>3444.0926529943599</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
-        <v>253.29888510704001</v>
+      <c r="M7" s="6">
+        <v>1318.9149808883601</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O7" s="1">
-        <v>15900.6530221744</v>
+        <v>15507.868007802799</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" s="6">
-        <v>192.81948685646</v>
+        <v>890.57774066925003</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="S7" s="1">
-        <v>19747.945993068599</v>
+        <v>10319.7957277487</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
       <c r="U7" s="6">
-        <v>139.454169988632</v>
+        <v>955.15718126296997</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="0"/>
-        <v>17440.8054404342</v>
+        <v>9171.3702757443534</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="2"/>
-        <v>217.80911841392481</v>
+        <v>848.38961639404147</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="1"/>
-        <v>2106.1230493046387</v>
+        <v>4395.7968896772509</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="3"/>
@@ -14197,269 +14201,528 @@
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="4"/>
-        <v>72.040549488605762</v>
+        <v>351.77987078484517</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>19895.936635012898</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>348.821719646453</v>
+        <v>438.52297663688603</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1">
-        <v>3370.8406049759501</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>436.52396607398902</v>
+        <v>450.74686002731301</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K8" s="1">
-        <v>13981.8798994178</v>
+        <v>621.89904418232197</v>
       </c>
       <c r="L8" s="1">
-        <v>50</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1667.7158224582599</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="O8" s="42">
-        <v>1.6932740521426301E-15</v>
-      </c>
-      <c r="P8" s="43">
         <v>0</v>
       </c>
-      <c r="Q8" s="44">
-        <v>801.72120523452702</v>
+      <c r="M8" s="6">
+        <v>1380.2317881584099</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="1">
+        <v>19332.462898417401</v>
+      </c>
+      <c r="P8" s="1">
+        <v>330</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>663.85615086555401</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="S8" s="1">
-        <v>11917.1319236281</v>
+        <v>10319.7957277487</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
       </c>
       <c r="U8" s="6">
-        <v>470.79333806037903</v>
+        <v>1305.9514675140299</v>
       </c>
       <c r="V8" s="5">
         <f t="shared" si="0"/>
-        <v>9833.1578126069489</v>
+        <v>13787.816693436645</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="2"/>
-        <v>745.11521029472158</v>
+        <v>847.86184864043867</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="1"/>
-        <v>8081.8762818007981</v>
+        <v>8330.634153241579</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="3"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="4"/>
-        <v>543.58203257505329</v>
+        <v>461.62229542941429</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1">
-        <v>18109.8758362757</v>
+        <v>12239.215368864199</v>
       </c>
       <c r="D9" s="1">
-        <v>150</v>
+        <v>710</v>
       </c>
       <c r="E9" s="6">
-        <v>718.46204662322998</v>
+        <v>585.91475439071598</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
-        <v>19029.514584953198</v>
+        <v>19332.462898417401</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <v>648.19405221938996</v>
+        <v>531.38687729835499</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K9" s="1">
-        <v>8142.78017928591</v>
+        <v>81.260375899265</v>
       </c>
       <c r="L9" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1012.8662173748</v>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>834.99956822395302</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="O9" s="1">
-        <v>11941.988946019101</v>
+        <v>12126.835971606501</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="6">
-        <v>3930.5757074356002</v>
+        <v>1216.5682814121201</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="S9" s="1">
-        <v>10687.685162767501</v>
+        <v>9532.0247206886106</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="6">
-        <v>828.57674980163495</v>
+        <v>1163.3138425350101</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" si="0"/>
-        <v>13582.368941860283</v>
+        <v>10662.359867095196</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="2"/>
-        <v>1427.7349546909309</v>
+        <v>866.43666477203078</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" si="1"/>
-        <v>4765.2093593479594</v>
+        <v>6946.9269121978477</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="3"/>
-        <v>4.6875E-2</v>
+        <v>0.23666666666666666</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="4"/>
-        <v>1405.8867783389339</v>
+        <v>317.28039687988337</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="8">
-        <v>7436.3865813542998</v>
-      </c>
-      <c r="D10" s="8">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1246.82823872566</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="8">
-        <v>12967.662139760499</v>
-      </c>
-      <c r="H10" s="8">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>700</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19332.462898417401</v>
+      </c>
+      <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="9">
-        <v>2686.2071478366802</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="8">
-        <v>19332.462898417401</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="E10" s="6">
+        <v>573.61916565895001</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12579.6770414764</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
-        <v>1116.34196615219</v>
+      <c r="I10" s="6">
+        <v>623.63171577453602</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15549.8105916104</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>536.57396078109696</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="O10" s="1">
-        <v>9532.0247206886106</v>
+        <v>3955.3799958967702</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="6">
-        <v>2524.6566164493502</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="S10" s="8">
-        <v>9962.2090920918799</v>
-      </c>
-      <c r="T10" s="8">
+        <v>627.12508797645501</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2622.2325611730598</v>
+      </c>
+      <c r="T10" s="1">
+        <v>330</v>
+      </c>
+      <c r="U10" s="6">
+        <v>852.55558228492703</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" ref="V10" si="5">SUM(C10, G10,K10,O10,S10)/5</f>
+        <v>10807.912617714808</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" ref="W10" si="6">SUM(E10, I10,M10,Q10,U10)/5</f>
+        <v>642.70110249519303</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" ref="X10" si="7">STDEV(C10, G10,K10,O10,S10)</f>
+        <v>7284.4914780908794</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" ref="Y10" si="8">AVERAGE(D10/A10, H10/A10, L10/A10, P10/A10, T10/A10)</f>
+        <v>9.4285714285714278E-2</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" ref="Z10" si="9">STDEV(E10, I10,M10,Q10,U10)</f>
+        <v>123.16700109146565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>800</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6474.0069665951196</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="9">
-        <v>1319.79149341583</v>
-      </c>
-      <c r="V10" s="7">
-        <f t="shared" ref="V10" si="5">SUM(C10, G10,K10,O10,S10)/5</f>
-        <v>11846.149086462539</v>
-      </c>
-      <c r="W10" s="8">
-        <f t="shared" ref="W10" si="6">SUM(E10, I10,M10,Q10,U10)/5</f>
-        <v>1778.7650925159421</v>
-      </c>
-      <c r="X10" s="8">
-        <f t="shared" ref="X10" si="7">STDEV(C10, G10,K10,O10,S10)</f>
-        <v>4627.4478077526765</v>
-      </c>
-      <c r="Y10" s="8">
-        <f t="shared" ref="Y10" si="8">AVERAGE(D10/A10, H10/A10, L10/A10, P10/A10, T10/A10)</f>
+      <c r="E11" s="6">
+        <v>925.78386044502201</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13762.223658229001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>540</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1150.6098620891501</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>19332.462898417401</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1330.0410425662899</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3074.5931162075199</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1915.2616229057301</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>19332.462898417401</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>802.53284692764203</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" ref="V11:V13" si="10">SUM(C11, G11,K11,O11,S11)/5</f>
+        <v>12395.14990757329</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" ref="W11:W13" si="11">SUM(E11, I11,M11,Q11,U11)/5</f>
+        <v>1224.8458469867669</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" ref="X11:X13" si="12">STDEV(C11, G11,K11,O11,S11)</f>
+        <v>7417.112415458103</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" ref="Y11:Y13" si="13">AVERAGE(D11/A11, H11/A11, L11/A11, P11/A11, T11/A11)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" ref="Z11:Z13" si="14">STDEV(E11, I11,M11,Q11,U11)</f>
+        <v>436.18725797464259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>900</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19332.462898417401</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>792.29923439025799</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9532.0247206886106</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1234.79395842552</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K12" s="1">
+        <v>363.27103581407198</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1645.4557628631501</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <v>19332.462898417401</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1175.39750909805</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>9532.0247206886106</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>964.85606455802895</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="10"/>
+        <v>11618.449254805219</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="11"/>
+        <v>1162.5605058670014</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="12"/>
+        <v>7974.9198178108645</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="14"/>
+        <v>322.00572386943759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10938.1772730146</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1132.5027985572799</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="8">
+        <v>15507.868007802799</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1358.8405151367101</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="8">
+        <v>11746.8307046479</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1805.8285136222801</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="O13" s="8">
+        <v>2033.0361205148299</v>
+      </c>
+      <c r="P13" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>5016.3546872138904</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="8">
+        <v>10319.7957277487</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>897.65832066535904</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="10"/>
+        <v>10109.141566745766</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="11"/>
+        <v>2042.236967039104</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="12"/>
+        <v>4944.2751605829035</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="13"/>
         <v>2E-3</v>
       </c>
-      <c r="Z10" s="9">
-        <f t="shared" ref="Z10" si="9">STDEV(E10, I10,M10,Q10,U10)</f>
-        <v>760.29981399990618</v>
+      <c r="Z13" s="9">
+        <f t="shared" si="14"/>
+        <v>1696.0227309661459</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14494,43 +14757,43 @@
       <c r="A1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="28" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="28" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="28" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="38" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="40"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -14652,28 +14915,28 @@
       <c r="M3" s="6">
         <v>18.294668674468902</v>
       </c>
-      <c r="N3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O3">
+      <c r="N3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" s="1">
         <v>0.23234668615100301</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>10000</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="6">
         <v>18.6183488368988</v>
       </c>
-      <c r="R3" t="s">
-        <v>212</v>
-      </c>
-      <c r="S3">
+      <c r="R3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S3" s="1">
         <v>2.6699516576468501</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>10000</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="6">
         <v>9.8786211013793892</v>
       </c>
       <c r="V3" s="5">
@@ -14736,28 +14999,28 @@
       <c r="M4" s="6">
         <v>28.552571535110399</v>
       </c>
-      <c r="N4" t="s">
-        <v>207</v>
-      </c>
-      <c r="O4">
+      <c r="N4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" s="1">
         <v>635.84593077808904</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>10000</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>45.308804035186697</v>
       </c>
-      <c r="R4" t="s">
-        <v>213</v>
-      </c>
-      <c r="S4">
+      <c r="R4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="1">
         <v>7373.2190792875299</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>10000</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="6">
         <v>22.462974548339801</v>
       </c>
       <c r="V4" s="5">
@@ -14821,28 +15084,28 @@
       <c r="M5" s="6">
         <v>72.814290046691895</v>
       </c>
-      <c r="N5" t="s">
-        <v>208</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="1">
         <v>2851.5541231923798</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>10000</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>106.706122398376</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>19588.928662714101</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>10000</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="6">
         <v>45.844452857971099</v>
       </c>
       <c r="V5" s="5">
@@ -14906,28 +15169,28 @@
       <c r="M6" s="6">
         <v>111.890806913375</v>
       </c>
-      <c r="N6" t="s">
-        <v>209</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" s="1">
         <v>9155.2125253175</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>10000</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>220.34326553344701</v>
       </c>
-      <c r="R6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S6">
+      <c r="R6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" s="1">
         <v>2702.0884048500002</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>9900</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="6">
         <v>154.65352725982601</v>
       </c>
       <c r="V6" s="5">
@@ -14991,28 +15254,28 @@
       <c r="M7" s="6">
         <v>197.37296652793799</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>19747.945993068599</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>10000</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>150.897243261337</v>
       </c>
-      <c r="R7" t="s">
-        <v>215</v>
-      </c>
-      <c r="S7">
+      <c r="R7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="S7" s="1">
         <v>7041.4848600616197</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>10000</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="6">
         <v>229.216174602508</v>
       </c>
       <c r="V7" s="5">
@@ -15076,28 +15339,28 @@
       <c r="M8" s="6">
         <v>423.78128623962402</v>
       </c>
-      <c r="N8" t="s">
-        <v>210</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O8" s="1">
         <v>20139.700581605899</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>9975</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <v>376.27304458618102</v>
       </c>
-      <c r="R8" t="s">
-        <v>216</v>
-      </c>
-      <c r="S8">
+      <c r="R8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="S8" s="1">
         <v>14926.322790361901</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>10000</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="6">
         <v>449.21795678138699</v>
       </c>
       <c r="V8" s="5">
@@ -15161,28 +15424,28 @@
       <c r="M9" s="6">
         <v>736.66323661804199</v>
       </c>
-      <c r="N9" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O9" s="1">
         <v>19029.514584953198</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>10000</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <v>785.45703339576698</v>
       </c>
-      <c r="R9" t="s">
-        <v>217</v>
-      </c>
-      <c r="S9">
+      <c r="R9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="1">
         <v>4416.8928231981599</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>9987.5</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="6">
         <v>1298.42667341232</v>
       </c>
       <c r="V9" s="5">
@@ -15207,7 +15470,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>1000</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -15246,28 +15509,28 @@
       <c r="M10" s="9">
         <v>1877.9169509410799</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <v>19332.462898417401</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="8">
         <v>10000</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="9">
         <v>866.99902749061505</v>
       </c>
-      <c r="R10" t="s">
-        <v>218</v>
-      </c>
-      <c r="S10">
+      <c r="R10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="8">
         <v>9519.2996720847805</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="8">
         <v>10000</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="9">
         <v>5908.42386198043</v>
       </c>
       <c r="V10" s="7">
